--- a/sample_test_export.xlsx
+++ b/sample_test_export.xlsx
@@ -42,7 +42,7 @@
   <si>
     <t xml:space="preserve">1. ログインできること
 2. 以下のデザインである事
-[]!(photo-1568323993144-20d546ba585d?ixlib=rb-1.2.1&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1974&amp;q=80)
+![](photo-1568323993144-20d546ba585d?ixlib=rb-1.2.1&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1974&amp;q=80)
 3. 機能Aを利用できること
 </t>
   </si>
@@ -58,9 +58,9 @@
   <si>
     <t xml:space="preserve">1. ログインできること
 2. 以下のデザインである事
-[]!(photo-1454391304352-2bf4678b1a7a?ixlib=rb-1.2.1&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80)
+![](photo-1454391304352-2bf4678b1a7a?ixlib=rb-1.2.1&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80)
 3. 画面ZZZに遷移する事
-[]!(photo-1522878129833-838a904a0e9e?ixlib=rb-1.2.1&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1470&amp;q=80)
+![](photo-1522878129833-838a904a0e9e?ixlib=rb-1.2.1&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1470&amp;q=80)
 </t>
   </si>
 </sst>
